--- a/带小计的透视表以及自定义多层索引的顺序/结果表.xlsx
+++ b/带小计的透视表以及自定义多层索引的顺序/结果表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2000106552\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2000106552\Desktop\带小计的透视表以及自定义多层索引的顺序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FE32C3-3DCF-48DC-9660-0E2C9314C7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8092E802-B36A-4AEA-AE56-E34E93C4A7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="3735" windowWidth="28740" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,40 +28,40 @@
     <t xml:space="preserve">省份 </t>
   </si>
   <si>
+    <t>2020 数量</t>
+  </si>
+  <si>
+    <t>2020 金额</t>
+  </si>
+  <si>
     <t>2020 市值</t>
   </si>
   <si>
-    <t>2020 数量</t>
-  </si>
-  <si>
-    <t>2020 金额</t>
+    <t>2021 数量</t>
+  </si>
+  <si>
+    <t>2021 金额</t>
   </si>
   <si>
     <t>2021 市值</t>
   </si>
   <si>
-    <t>2021 数量</t>
-  </si>
-  <si>
-    <t>2021 金额</t>
+    <t>2022 数量</t>
+  </si>
+  <si>
+    <t>2022 金额</t>
   </si>
   <si>
     <t>2022 市值</t>
   </si>
   <si>
-    <t>2022 数量</t>
-  </si>
-  <si>
-    <t>2022 金额</t>
+    <t>总计 数量</t>
+  </si>
+  <si>
+    <t>总计 金额</t>
   </si>
   <si>
     <t>总计 市值</t>
-  </si>
-  <si>
-    <t>总计 数量</t>
-  </si>
-  <si>
-    <t>总计 金额</t>
   </si>
   <si>
     <t>A</t>
@@ -576,23 +576,23 @@
         <v>18</v>
       </c>
       <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>10</v>
-      </c>
       <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
         <v>30</v>
       </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>20</v>
-      </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
@@ -603,13 +603,13 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1">
         <v>45</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -638,22 +638,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1">
         <v>45</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <v>3</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M3" s="1">
         <v>30</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <v>45</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -840,40 +840,40 @@
         <v>24</v>
       </c>
       <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
         <v>15</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
       <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1">
         <v>30</v>
       </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>20</v>
-      </c>
       <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>30</v>
+      </c>
+      <c r="K8" s="1">
         <v>45</v>
       </c>
-      <c r="J8" s="1">
-        <v>3</v>
-      </c>
-      <c r="K8" s="1">
-        <v>30</v>
-      </c>
       <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>60</v>
+      </c>
+      <c r="N8" s="1">
         <v>90</v>
-      </c>
-      <c r="M8" s="1">
-        <v>6</v>
-      </c>
-      <c r="N8" s="1">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -972,40 +972,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
         <v>15</v>
       </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="M11" s="1">
         <v>10</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <v>15</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -1025,31 +1025,31 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1">
         <v>30</v>
       </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>20</v>
-      </c>
       <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>30</v>
+      </c>
+      <c r="K12" s="1">
         <v>45</v>
       </c>
-      <c r="J12" s="1">
-        <v>3</v>
-      </c>
-      <c r="K12" s="1">
-        <v>30</v>
-      </c>
       <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>50</v>
+      </c>
+      <c r="N12" s="1">
         <v>75</v>
-      </c>
-      <c r="M12" s="1">
-        <v>5</v>
-      </c>
-      <c r="N12" s="1">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -1148,40 +1148,40 @@
         <v>24</v>
       </c>
       <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
         <v>15</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>10</v>
-      </c>
       <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1">
         <v>30</v>
       </c>
-      <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>20</v>
-      </c>
       <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>30</v>
+      </c>
+      <c r="K15" s="1">
         <v>45</v>
       </c>
-      <c r="J15" s="1">
-        <v>3</v>
-      </c>
-      <c r="K15" s="1">
-        <v>30</v>
-      </c>
       <c r="L15" s="1">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1">
+        <v>60</v>
+      </c>
+      <c r="N15" s="1">
         <v>90</v>
-      </c>
-      <c r="M15" s="1">
-        <v>6</v>
-      </c>
-      <c r="N15" s="1">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -1368,40 +1368,40 @@
         <v>22</v>
       </c>
       <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1">
         <v>15</v>
       </c>
-      <c r="D20" s="1">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1">
+      <c r="M20" s="1">
         <v>10</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="N20" s="1">
         <v>15</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -1421,31 +1421,31 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1">
         <v>30</v>
       </c>
-      <c r="G21" s="1">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>20</v>
-      </c>
       <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>30</v>
+      </c>
+      <c r="K21" s="1">
         <v>45</v>
       </c>
-      <c r="J21" s="1">
-        <v>3</v>
-      </c>
-      <c r="K21" s="1">
-        <v>30</v>
-      </c>
       <c r="L21" s="1">
+        <v>5</v>
+      </c>
+      <c r="M21" s="1">
+        <v>50</v>
+      </c>
+      <c r="N21" s="1">
         <v>75</v>
-      </c>
-      <c r="M21" s="1">
-        <v>5</v>
-      </c>
-      <c r="N21" s="1">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -1456,40 +1456,40 @@
         <v>24</v>
       </c>
       <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
         <v>15</v>
       </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10</v>
-      </c>
       <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1">
         <v>30</v>
       </c>
-      <c r="G22" s="1">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>20</v>
-      </c>
       <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>30</v>
+      </c>
+      <c r="K22" s="1">
         <v>45</v>
       </c>
-      <c r="J22" s="1">
-        <v>3</v>
-      </c>
-      <c r="K22" s="1">
-        <v>30</v>
-      </c>
       <c r="L22" s="1">
+        <v>6</v>
+      </c>
+      <c r="M22" s="1">
+        <v>60</v>
+      </c>
+      <c r="N22" s="1">
         <v>90</v>
-      </c>
-      <c r="M22" s="1">
-        <v>6</v>
-      </c>
-      <c r="N22" s="1">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -1498,40 +1498,40 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1">
         <v>45</v>
       </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>30</v>
-      </c>
       <c r="F23" s="1">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1">
+        <v>60</v>
+      </c>
+      <c r="H23" s="1">
         <v>90</v>
       </c>
-      <c r="G23" s="1">
-        <v>6</v>
-      </c>
-      <c r="H23" s="1">
-        <v>60</v>
-      </c>
       <c r="I23" s="1">
+        <v>9</v>
+      </c>
+      <c r="J23" s="1">
+        <v>90</v>
+      </c>
+      <c r="K23" s="1">
         <v>135</v>
       </c>
-      <c r="J23" s="1">
-        <v>9</v>
-      </c>
-      <c r="K23" s="1">
-        <v>90</v>
-      </c>
       <c r="L23" s="1">
+        <v>18</v>
+      </c>
+      <c r="M23" s="1">
+        <v>180</v>
+      </c>
+      <c r="N23" s="1">
         <v>270</v>
-      </c>
-      <c r="M23" s="1">
-        <v>18</v>
-      </c>
-      <c r="N23" s="1">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
